--- a/biology/Botanique/Foetidia_macrocarpa/Foetidia_macrocarpa.xlsx
+++ b/biology/Botanique/Foetidia_macrocarpa/Foetidia_macrocarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Foetidia macrocarpa est une espèce de plantes à fleurs de la famille des Lecythidaceae endémique de Madagascar.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente uniquement dans les provinces d'Antsiranana et Mahajanga à Madagascar. On la trouve du niveau de la mer à 500 m d'altitude[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente uniquement dans les provinces d'Antsiranana et Mahajanga à Madagascar. On la trouve du niveau de la mer à 500 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,15 +556,17 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (5 mai 2017)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (5 mai 2017) :
 variété Foetidia macrocarpa var. ambilobensis
 variété Foetidia macrocarpa var. macrocarpa
-Selon World Checklist of Selected Plant Families (WCSP)  (5 mai 2017)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (5 mai 2017) :
 variété Foetidia macrocarpa var. ambilobensis Bosser, Bull. Mus. Natl. Hist. Nat., B (1988)
 variété Foetidia macrocarpa var. macrocarpa
-Selon Tropicos                                           (5 mai 2017)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (5 mai 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Foetidia macrocarpa var. ambilobensis Bosser
 variété Foetidia macrocarpa var. macrocarpa</t>
         </is>
